--- a/risk.xlsx
+++ b/risk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Google Drive\repos\streamlit\NDFD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{150B509E-B695-4B59-87F2-41635BBFC650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7636B6-17B5-4203-A569-272BD0014E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6618" yWindow="894" windowWidth="18126" windowHeight="11754" xr2:uid="{D255C48E-A8B3-4B01-86A4-01D2B5AABEDA}"/>
+    <workbookView xWindow="366" yWindow="366" windowWidth="18126" windowHeight="11754" xr2:uid="{D255C48E-A8B3-4B01-86A4-01D2B5AABEDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t xml:space="preserve"> Low Risk (1)</t>
   </si>
   <si>
-    <t xml:space="preserve"> No Risk</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Moderate Risk (2)</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Flood Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No Risk (0)</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -484,20 +484,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -505,22 +505,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
